--- a/Cristian_processing/Tensionse_placa.xlsx
+++ b/Cristian_processing/Tensionse_placa.xlsx
@@ -1,27 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Cristian-PC\Documents\Repositorios\Proyecto_Final_Tunel\Cristian_processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEFBEA67-725C-46FC-A964-0AAEC026DCD6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5D9E66-3A97-4217-981F-1EE6F06F5499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="1350" windowWidth="18000" windowHeight="9810" xr2:uid="{29E09F44-988C-4143-B3A4-EC03E69CE84B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{29E09F44-988C-4143-B3A4-EC03E69CE84B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t xml:space="preserve">R1 </t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -782,6 +793,1169 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$34:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$B$34:$B$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.43</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.01</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.93</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CF63-4B01-9971-FA1FCF7B4D6D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1028061712"/>
+        <c:axId val="1179968976"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1028061712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1179968976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1179968976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1028061712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.1025371828521434E-2"/>
+          <c:y val="0.17171296296296298"/>
+          <c:w val="0.87753018372703417"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-ES"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$49:$A$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$B$49:$B$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.03</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.94</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.86</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.0500000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3EE0-419F-8EA1-30EE5A939F11}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1189786192"/>
+        <c:axId val="1189797008"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1189786192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1189797008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1189797008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1189786192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-ES"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$63:$A$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$B$63:$B$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.99</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.96</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.96</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.93</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.84</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.06</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FF21-4406-9231-0D543E652E74}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1641611919"/>
+        <c:axId val="1641617743"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1641611919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1641617743"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1641617743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1641611919"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -862,6 +2036,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1379,6 +2673,1554 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1963,6 +4805,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>402773</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>16329</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>206830</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>168729</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1894D8F2-27A4-4470-8F85-96439DDE51B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>261258</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>146957</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>65315</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A073A149-6000-4F85-8D7C-30ED7FCC27C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B357AD32-5C92-4CFE-B2C6-507DC859900D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2268,15 +5218,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59FC1B9-41E7-424D-B3AD-20F4A1D1B3C7}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>100</v>
       </c>
@@ -2284,7 +5234,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>200</v>
       </c>
@@ -2292,7 +5242,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>300</v>
       </c>
@@ -2300,7 +5250,7 @@
         <v>2.59</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>400</v>
       </c>
@@ -2308,7 +5258,7 @@
         <v>3.52</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>500</v>
       </c>
@@ -2316,7 +5266,7 @@
         <v>4.45</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>600</v>
       </c>
@@ -2324,7 +5274,7 @@
         <v>5.39</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>700</v>
       </c>
@@ -2332,7 +5282,7 @@
         <v>6.34</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>800</v>
       </c>
@@ -2340,7 +5290,7 @@
         <v>7.18</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>900</v>
       </c>
@@ -2348,7 +5298,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1000</v>
       </c>
@@ -2356,7 +5306,7 @@
         <v>7.92</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>100</v>
       </c>
@@ -2364,7 +5314,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>200</v>
       </c>
@@ -2372,7 +5322,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>300</v>
       </c>
@@ -2380,7 +5330,7 @@
         <v>2.59</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>400</v>
       </c>
@@ -2388,7 +5338,7 @@
         <v>3.52</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>500</v>
       </c>
@@ -2396,7 +5346,7 @@
         <v>4.45</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>600</v>
       </c>
@@ -2404,7 +5354,7 @@
         <v>5.39</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>700</v>
       </c>
@@ -2412,7 +5362,7 @@
         <v>6.34</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>800</v>
       </c>
@@ -2420,7 +5370,7 @@
         <v>7.18</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>900</v>
       </c>
@@ -2428,12 +5378,288 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1000</v>
       </c>
       <c r="B27">
         <v>7.92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>100</v>
+      </c>
+      <c r="B34">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>200</v>
+      </c>
+      <c r="B35">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>300</v>
+      </c>
+      <c r="B36">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>400</v>
+      </c>
+      <c r="B37">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>500</v>
+      </c>
+      <c r="B38">
+        <v>4.34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>600</v>
+      </c>
+      <c r="B39">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>700</v>
+      </c>
+      <c r="B40">
+        <v>6.18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>800</v>
+      </c>
+      <c r="B41">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>900</v>
+      </c>
+      <c r="B42">
+        <v>8.01</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>1000</v>
+      </c>
+      <c r="B43">
+        <v>8.93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>100</v>
+      </c>
+      <c r="B49">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>200</v>
+      </c>
+      <c r="B50">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>300</v>
+      </c>
+      <c r="B51">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>400</v>
+      </c>
+      <c r="B52">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>500</v>
+      </c>
+      <c r="B53">
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>600</v>
+      </c>
+      <c r="B54">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>700</v>
+      </c>
+      <c r="B55">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>800</v>
+      </c>
+      <c r="B56">
+        <v>7.03</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>900</v>
+      </c>
+      <c r="B57">
+        <v>7.94</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>1000</v>
+      </c>
+      <c r="B58">
+        <v>8.86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>1023</v>
+      </c>
+      <c r="B59">
+        <v>9.0500000000000007</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>100</v>
+      </c>
+      <c r="B64">
+        <v>1.02</v>
+      </c>
+      <c r="D64" t="s">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>97.9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>200</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>47.6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>300</v>
+      </c>
+      <c r="B66">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>400</v>
+      </c>
+      <c r="B67">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>500</v>
+      </c>
+      <c r="B68">
+        <v>4.9800000000000004</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>600</v>
+      </c>
+      <c r="B69">
+        <v>5.96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>700</v>
+      </c>
+      <c r="B70">
+        <v>6.96</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>800</v>
+      </c>
+      <c r="B71">
+        <v>7.93</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>900</v>
+      </c>
+      <c r="B72">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>1000</v>
+      </c>
+      <c r="B73">
+        <v>9.84</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>1023</v>
+      </c>
+      <c r="B74">
+        <v>10.06</v>
       </c>
     </row>
   </sheetData>
